--- a/도서관.xlsx
+++ b/도서관.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF163470-F163-47AC-92F7-FED199560124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5974929-49D1-4CEA-9E14-E0D3604C070C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="2895" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="2895" windowWidth="19440" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대출" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="148">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,13 +130,379 @@
   <si>
     <t>반납</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느리게 천천히 가도 괜찮아</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가도 괜찮아</t>
+  </si>
+  <si>
+    <t>저자 : 박건우 지음</t>
+  </si>
+  <si>
+    <t>출판사 : 소담출판사, 2019</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-25=2</t>
+  </si>
+  <si>
+    <t>소장처 : 화명도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [화명]종합자료실</t>
+  </si>
+  <si>
+    <t>대출여부 : 대출불가(관외대출중)</t>
+  </si>
+  <si>
+    <t>출판사 : 태일소담, 2019</t>
+  </si>
+  <si>
+    <t>청구기호 : 912.4-4</t>
+  </si>
+  <si>
+    <t>소장처 : 북구디지털도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [북구디지털]종합자료실</t>
+  </si>
+  <si>
+    <t>대출여부 : 대출불가</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-25</t>
+  </si>
+  <si>
+    <t>대출여부 : 대출가능</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가도 괜찮아 : 글로벌 거지 부부×대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가도 괜찮아 : 글로벌 거지 부부×대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-23</t>
+  </si>
+  <si>
+    <t>소장처 : 명장도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [명장]종합자료실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가-도 괜찮아 : 글로벌 거지 부부×대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가-도 괜찮아 : 글로벌 거지 부부×대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>출판사 : 태일소담출판사, 2019</t>
+  </si>
+  <si>
+    <t>청구기호 : 816.7-87</t>
+  </si>
+  <si>
+    <t>소장처 : 분포도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [분포]종합자료실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가도 괜찮아 : 글로벌 거지부부×대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가도 괜찮아 : 글로벌 거지부부×대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-18</t>
+  </si>
+  <si>
+    <t>소장처 : 해운대인문학도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [해운대인문학]종합자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 816.7-209</t>
+  </si>
+  <si>
+    <t>소장처 : 수영구도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [수영구]문학자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 816.7-235</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-박14ㄴ</t>
+  </si>
+  <si>
+    <t>소장처 : 다대도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [다대]종합자료실</t>
+  </si>
+  <si>
+    <t>출판사 : 소담, 2019</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-박14느</t>
+  </si>
+  <si>
+    <t>소장처 : 동구도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [동구]종합자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-16</t>
+  </si>
+  <si>
+    <t>소장처 : 반송도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [반송]사학자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-20</t>
+  </si>
+  <si>
+    <t>소장처 : 구덕도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [구덕]자료실 1</t>
+  </si>
+  <si>
+    <t>청구기호 : 본관 981.2402-40</t>
+  </si>
+  <si>
+    <t>소장처 : 해운대도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [해운대]본관 종합실</t>
+  </si>
+  <si>
+    <t>소장처 : 중앙도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [중앙]문학언어역사실(2층)</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-34</t>
+  </si>
+  <si>
+    <t>소장처 : 부전도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [부전]종합자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 816.7-283</t>
+  </si>
+  <si>
+    <t>소장처 : 연제도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [연제구]종합자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 816.7-박14ㄴ</t>
+  </si>
+  <si>
+    <t>소장처 : 사상도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [사상]종합자료실</t>
+  </si>
+  <si>
+    <t>소장처 : 영도도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [영도구]종합자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 관광 981.2402-33</t>
+  </si>
+  <si>
+    <t>소장처 : 해운대도서관우동분관</t>
+  </si>
+  <si>
+    <t>자료실 : [해운대분관]분관 종합실</t>
+  </si>
+  <si>
+    <t>소장처 : 서동도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [서동]종합</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-6</t>
+  </si>
+  <si>
+    <t>소장처 : 금곡도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [금곡]종합자료실(4층)</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-37=2</t>
+  </si>
+  <si>
+    <t>소장처 : 시민도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [시민]인문실</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-37</t>
+  </si>
+  <si>
+    <t>청구기호 : 816.7-박14느=2</t>
+  </si>
+  <si>
+    <t>소장처 : 남구도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [남구]문학자료실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가도 괜찮아 : 글로벌 거지 부부X대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가도 괜찮아 : 글로벌 거지 부부X대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>소장처 : 강서도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [강서구]종합자료실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가 - 도 괜찮아 : 글로벌 거지 부부x대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가 - 도 괜찮아 : 글로벌 거지 부부x대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>청구기호 : 912.4-1</t>
+  </si>
+  <si>
+    <t>소장처 : 내리새라도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [내리새라]종합자료실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가도 괜찮아 : 글로벌 거지부부 x 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가도 괜찮아 : 글로벌 거지부부 x 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>소장처 : 기장디지털도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [디지털]기장디지털도서관</t>
+  </si>
+  <si>
+    <t>소장처 : 고촌어울림도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [고촌]종합자료실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가도 괜찮아 : 글로벌 거지 부부 X 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가도 괜찮아 : 글로벌 거지 부부 X 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>청구기호 : 912.4-박14ㄴ</t>
+  </si>
+  <si>
+    <t>소장처 : 감천횃불 작은도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [사하구]감천횃불일반자료실</t>
+  </si>
+  <si>
+    <t>소장처 : 강서기적의도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [강서구][기적]아름드리자료실</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-9</t>
+  </si>
+  <si>
+    <t>소장처 : 동래읍성도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [동래]종합자료실</t>
+  </si>
+  <si>
+    <t>소장처 : 사하도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [사하]종합실</t>
+  </si>
+  <si>
+    <t>청구기호 : 816.7-495</t>
+  </si>
+  <si>
+    <t>소장처 : 정관도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [정관]종합자료열람실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가 - 도 괜찮아 : 글로벌 거지 부부 x 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가 - 도 괜찮아 : 글로벌 거지 부부 x 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>출판사 : 소담(태일소담), 2019</t>
+  </si>
+  <si>
+    <t>청구기호 : 일반 981.2402-5</t>
+  </si>
+  <si>
+    <t>소장처 : 대라다목적도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [대라]종합자료실</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가-도 괜찮아 : 글로벌 거지 부부 X 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>[도서] 느리게 천천히 가-도 괜찮아 : 글로벌 거지 부부 X 대만 도보 여행기</t>
+  </si>
+  <si>
+    <t>소장처 : 금정도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [금정]종합자료실1</t>
+  </si>
+  <si>
+    <t>청구기호 : 981.2402-2020-3</t>
+  </si>
+  <si>
+    <t>소장처 : 부산도서관</t>
+  </si>
+  <si>
+    <t>자료실 : [부산] 2층 책마루</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +516,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HY견고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,9 +545,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -456,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -680,4 +1060,1463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA707F-C50C-4CE1-8FC1-2C6B34B2711D}">
+  <dimension ref="A3:A326"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/도서관.xlsx
+++ b/도서관.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5974929-49D1-4CEA-9E14-E0D3604C070C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF175C20-A7ED-4B63-83CF-96E99640DCB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="2895" windowWidth="19440" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대출" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="153">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,24 @@
   </si>
   <si>
     <t>자료실 : [부산] 2층 책마루</t>
+  </si>
+  <si>
+    <t>동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글로벌 거지 부부 </t>
+  </si>
+  <si>
+    <t>Git 교과서</t>
+  </si>
+  <si>
+    <t>느리게 천천히 가-도 괜찮아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -834,11 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1055,6 +1073,57 @@
         <v>44212</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44215</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1066,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA707F-C50C-4CE1-8FC1-2C6B34B2711D}">
   <dimension ref="A3:A326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+    <sheetView topLeftCell="A317" workbookViewId="0">
       <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>

--- a/도서관.xlsx
+++ b/도서관.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF175C20-A7ED-4B63-83CF-96E99640DCB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947971D-C7A6-49DB-9E6F-3E5C1478117D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,22 @@
   </si>
   <si>
     <t>여행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림으로 읽는 장자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줌 &amp; 영상 편집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,6 +1138,40 @@
       </c>
       <c r="F15" s="1">
         <v>44215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44225</v>
       </c>
     </row>
   </sheetData>

--- a/도서관.xlsx
+++ b/도서관.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3947971D-C7A6-49DB-9E6F-3E5C1478117D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141B1BB-C5F2-4C56-ADE1-76AB29343BB6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대출" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="박건우" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="171">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,62 @@
   </si>
   <si>
     <t>유튜브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰으로 영상 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초발심자경문 및 치문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3D 프린팅 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무문관 참구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화엄경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관음경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무문관 강설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무문관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길없는 길2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길없는 길3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길없는 길4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리리파이3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워셀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,11 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,21 +1197,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>44211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1">
-        <v>44225</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
@@ -1165,13 +1208,263 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F17" s="1">
         <v>44225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44227</v>
       </c>
     </row>
   </sheetData>
@@ -1185,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA707F-C50C-4CE1-8FC1-2C6B34B2711D}">
   <dimension ref="A3:A326"/>
   <sheetViews>
-    <sheetView topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
